--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I797"/>
+  <dimension ref="A1:I798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28283,6 +28283,41 @@
         <v>374700</v>
       </c>
     </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E798" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F798" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G798" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H798" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I798" t="n">
+        <v>1370900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I798"/>
+  <dimension ref="A1:I799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28318,6 +28318,41 @@
         <v>1370900</v>
       </c>
     </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E799" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F799" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G799" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H799" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I799" t="n">
+        <v>707000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I799"/>
+  <dimension ref="A1:I800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28353,6 +28353,41 @@
         <v>707000</v>
       </c>
     </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E800" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F800" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G800" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H800" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I800" t="n">
+        <v>325400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I800"/>
+  <dimension ref="A1:I801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28388,6 +28388,41 @@
         <v>325400</v>
       </c>
     </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E801" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F801" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G801" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H801" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I801" t="n">
+        <v>120900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I801"/>
+  <dimension ref="A1:I802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28423,6 +28423,41 @@
         <v>120900</v>
       </c>
     </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E802" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F802" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G802" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H802" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I802" t="n">
+        <v>1704000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I802"/>
+  <dimension ref="A1:I803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28458,6 +28458,41 @@
         <v>1704000</v>
       </c>
     </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E803" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F803" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G803" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H803" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I803" t="n">
+        <v>412300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I803"/>
+  <dimension ref="A1:I804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28493,6 +28493,41 @@
         <v>412300</v>
       </c>
     </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E804" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F804" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G804" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H804" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I804" t="n">
+        <v>103400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I804"/>
+  <dimension ref="A1:I805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28528,6 +28528,41 @@
         <v>103400</v>
       </c>
     </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E805" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F805" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G805" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H805" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I805" t="n">
+        <v>1926400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I805"/>
+  <dimension ref="A1:I806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28563,6 +28563,41 @@
         <v>1926400</v>
       </c>
     </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E806" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F806" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G806" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H806" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I806" t="n">
+        <v>385400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I806"/>
+  <dimension ref="A1:I807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28598,6 +28598,41 @@
         <v>385400</v>
       </c>
     </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E807" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F807" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G807" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H807" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I807" t="n">
+        <v>528600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I807"/>
+  <dimension ref="A1:I808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28633,6 +28633,41 @@
         <v>528600</v>
       </c>
     </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E808" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F808" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G808" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H808" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I808" t="n">
+        <v>84200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I808"/>
+  <dimension ref="A1:I809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28668,6 +28668,41 @@
         <v>84200</v>
       </c>
     </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E809" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F809" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G809" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H809" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I809" t="n">
+        <v>10700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I809"/>
+  <dimension ref="A1:I811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28703,6 +28703,76 @@
         <v>10700</v>
       </c>
     </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E810" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F810" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G810" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H810" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I810" t="n">
+        <v>898400</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E811" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F811" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G811" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H811" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I811" t="n">
+        <v>1243600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I811"/>
+  <dimension ref="A1:I813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28773,6 +28773,76 @@
         <v>1243600</v>
       </c>
     </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E812" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F812" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G812" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H812" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I812" t="n">
+        <v>407300</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E813" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F813" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G813" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H813" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I813" t="n">
+        <v>394000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I813"/>
+  <dimension ref="A1:I814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28843,6 +28843,41 @@
         <v>394000</v>
       </c>
     </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E814" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F814" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G814" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H814" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I814" t="n">
+        <v>510300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I814"/>
+  <dimension ref="A1:I815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28878,6 +28878,41 @@
         <v>510300</v>
       </c>
     </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E815" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F815" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G815" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H815" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I815" t="n">
+        <v>268000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I815"/>
+  <dimension ref="A1:I816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28913,6 +28913,41 @@
         <v>268000</v>
       </c>
     </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E816" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F816" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G816" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H816" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I816" t="n">
+        <v>351100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I816"/>
+  <dimension ref="A1:I817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28948,6 +28948,41 @@
         <v>351100</v>
       </c>
     </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E817" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F817" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G817" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H817" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I817" t="n">
+        <v>1012700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I817"/>
+  <dimension ref="A1:I819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28983,6 +28983,76 @@
         <v>1012700</v>
       </c>
     </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E818" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F818" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G818" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H818" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>728300</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E819" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F819" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G819" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H819" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I819" t="n">
+        <v>386000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I819"/>
+  <dimension ref="A1:I820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29053,6 +29053,41 @@
         <v>386000</v>
       </c>
     </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E820" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F820" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G820" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H820" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I820" t="n">
+        <v>1525700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I820"/>
+  <dimension ref="A1:I821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29088,6 +29088,41 @@
         <v>1525700</v>
       </c>
     </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E821" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F821" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G821" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H821" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I821" t="n">
+        <v>1999200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I821"/>
+  <dimension ref="A1:I830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26570,11 +26570,11 @@
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -26588,28 +26588,28 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="F749" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="G749" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H749" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="I749" t="n">
-        <v>92000</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -26623,28 +26623,28 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="F750" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="G750" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="H750" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="I750" t="n">
-        <v>65500</v>
+        <v>536900</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -26658,28 +26658,28 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="F751" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="G751" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H751" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="I751" t="n">
-        <v>248900</v>
+        <v>702700</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -26693,28 +26693,28 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="F752" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="G752" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H752" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="I752" t="n">
-        <v>65000</v>
+        <v>540800</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -26728,10 +26728,10 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="F753" t="n">
-        <v>0.14</v>
+        <v>0.145</v>
       </c>
       <c r="G753" t="n">
         <v>0.135</v>
@@ -26740,16 +26740,16 @@
         <v>0.14</v>
       </c>
       <c r="I753" t="n">
-        <v>191900</v>
+        <v>1571500</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -26763,10 +26763,10 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="F754" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="G754" t="n">
         <v>0.135</v>
@@ -26775,16 +26775,16 @@
         <v>0.135</v>
       </c>
       <c r="I754" t="n">
-        <v>343300</v>
+        <v>378100</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -26801,25 +26801,25 @@
         <v>0.135</v>
       </c>
       <c r="F755" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="G755" t="n">
         <v>0.135</v>
       </c>
       <c r="H755" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="I755" t="n">
-        <v>307200</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -26836,25 +26836,25 @@
         <v>0.135</v>
       </c>
       <c r="F756" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="G756" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="H756" t="n">
         <v>0.135</v>
       </c>
       <c r="I756" t="n">
-        <v>245000</v>
+        <v>1651700</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -26880,16 +26880,16 @@
         <v>0.135</v>
       </c>
       <c r="I757" t="n">
-        <v>316000</v>
+        <v>135600</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -26903,28 +26903,28 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="F758" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="G758" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H758" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I758" t="n">
-        <v>50000</v>
+        <v>92000</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -26938,10 +26938,10 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="F759" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="G759" t="n">
         <v>0.135</v>
@@ -26950,16 +26950,16 @@
         <v>0.135</v>
       </c>
       <c r="I759" t="n">
-        <v>129100</v>
+        <v>65500</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -26979,22 +26979,22 @@
         <v>0.135</v>
       </c>
       <c r="G760" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="H760" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="I760" t="n">
-        <v>60000</v>
+        <v>248900</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -27014,22 +27014,22 @@
         <v>0.135</v>
       </c>
       <c r="G761" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="H761" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="I761" t="n">
-        <v>152300</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -27055,16 +27055,16 @@
         <v>0.14</v>
       </c>
       <c r="I762" t="n">
-        <v>414300</v>
+        <v>191900</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -27090,16 +27090,16 @@
         <v>0.135</v>
       </c>
       <c r="I763" t="n">
-        <v>140000</v>
+        <v>343300</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -27125,16 +27125,16 @@
         <v>0.135</v>
       </c>
       <c r="I764" t="n">
-        <v>290000</v>
+        <v>307200</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -27151,7 +27151,7 @@
         <v>0.135</v>
       </c>
       <c r="F765" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="G765" t="n">
         <v>0.135</v>
@@ -27160,16 +27160,16 @@
         <v>0.135</v>
       </c>
       <c r="I765" t="n">
-        <v>359800</v>
+        <v>245000</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -27195,16 +27195,16 @@
         <v>0.135</v>
       </c>
       <c r="I766" t="n">
-        <v>393700</v>
+        <v>316000</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -27218,28 +27218,28 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="F767" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="G767" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="H767" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="I767" t="n">
-        <v>111800</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -27253,10 +27253,10 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="F768" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="G768" t="n">
         <v>0.135</v>
@@ -27265,16 +27265,16 @@
         <v>0.135</v>
       </c>
       <c r="I768" t="n">
-        <v>90200</v>
+        <v>129100</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -27300,16 +27300,16 @@
         <v>0.135</v>
       </c>
       <c r="I769" t="n">
-        <v>340500</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -27335,16 +27335,16 @@
         <v>0.135</v>
       </c>
       <c r="I770" t="n">
-        <v>585800</v>
+        <v>152300</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -27370,16 +27370,16 @@
         <v>0.14</v>
       </c>
       <c r="I771" t="n">
-        <v>361100</v>
+        <v>414300</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -27393,28 +27393,28 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="F772" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="G772" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="H772" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="I772" t="n">
-        <v>382000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -27428,10 +27428,10 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="F773" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="G773" t="n">
         <v>0.135</v>
@@ -27440,16 +27440,16 @@
         <v>0.135</v>
       </c>
       <c r="I773" t="n">
-        <v>192300</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -27463,28 +27463,28 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="F774" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="G774" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="H774" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="I774" t="n">
-        <v>249100</v>
+        <v>359800</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -27510,16 +27510,16 @@
         <v>0.135</v>
       </c>
       <c r="I775" t="n">
-        <v>886000</v>
+        <v>393700</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -27536,7 +27536,7 @@
         <v>0.135</v>
       </c>
       <c r="F776" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="G776" t="n">
         <v>0.135</v>
@@ -27545,16 +27545,16 @@
         <v>0.135</v>
       </c>
       <c r="I776" t="n">
-        <v>190000</v>
+        <v>111800</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -27580,16 +27580,16 @@
         <v>0.135</v>
       </c>
       <c r="I777" t="n">
-        <v>98000</v>
+        <v>90200</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -27603,28 +27603,28 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="F778" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="G778" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="H778" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="I778" t="n">
-        <v>686500</v>
+        <v>340500</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -27638,10 +27638,10 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="F779" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="G779" t="n">
         <v>0.135</v>
@@ -27650,16 +27650,16 @@
         <v>0.135</v>
       </c>
       <c r="I779" t="n">
-        <v>730000</v>
+        <v>585800</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -27673,28 +27673,28 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="F780" t="n">
         <v>0.14</v>
       </c>
       <c r="G780" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="H780" t="n">
         <v>0.14</v>
       </c>
       <c r="I780" t="n">
-        <v>31800</v>
+        <v>361100</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -27711,25 +27711,25 @@
         <v>0.14</v>
       </c>
       <c r="F781" t="n">
-        <v>0.14</v>
+        <v>0.145</v>
       </c>
       <c r="G781" t="n">
         <v>0.14</v>
       </c>
       <c r="H781" t="n">
-        <v>0.14</v>
+        <v>0.145</v>
       </c>
       <c r="I781" t="n">
-        <v>10000</v>
+        <v>382000</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -27755,16 +27755,16 @@
         <v>0.135</v>
       </c>
       <c r="I782" t="n">
-        <v>6000</v>
+        <v>192300</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -27778,28 +27778,28 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="F783" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G783" t="n">
         <v>0.14</v>
       </c>
-      <c r="G783" t="n">
-        <v>0.135</v>
-      </c>
       <c r="H783" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="I783" t="n">
-        <v>354300</v>
+        <v>249100</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -27816,7 +27816,7 @@
         <v>0.135</v>
       </c>
       <c r="F784" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="G784" t="n">
         <v>0.135</v>
@@ -27825,16 +27825,16 @@
         <v>0.135</v>
       </c>
       <c r="I784" t="n">
-        <v>495800</v>
+        <v>886000</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -27848,28 +27848,28 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="F785" t="n">
         <v>0.14</v>
       </c>
       <c r="G785" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="H785" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="I785" t="n">
-        <v>857000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -27886,7 +27886,7 @@
         <v>0.135</v>
       </c>
       <c r="F786" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="G786" t="n">
         <v>0.135</v>
@@ -27895,16 +27895,16 @@
         <v>0.135</v>
       </c>
       <c r="I786" t="n">
-        <v>63000</v>
+        <v>98000</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -27918,28 +27918,28 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="F787" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="G787" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="H787" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="I787" t="n">
-        <v>100000</v>
+        <v>686500</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -27956,25 +27956,25 @@
         <v>0.14</v>
       </c>
       <c r="F788" t="n">
-        <v>0.165</v>
+        <v>0.14</v>
       </c>
       <c r="G788" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="H788" t="n">
-        <v>0.16</v>
+        <v>0.135</v>
       </c>
       <c r="I788" t="n">
-        <v>20354000</v>
+        <v>730000</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -27988,28 +27988,28 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F789" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="G789" t="n">
-        <v>0.145</v>
+        <v>0.14</v>
       </c>
       <c r="H789" t="n">
-        <v>0.145</v>
+        <v>0.14</v>
       </c>
       <c r="I789" t="n">
-        <v>4808900</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -28023,28 +28023,28 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F790" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G790" t="n">
-        <v>0.145</v>
+        <v>0.14</v>
       </c>
       <c r="H790" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I790" t="n">
-        <v>1871700</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -28058,28 +28058,28 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F791" t="n">
-        <v>0.155</v>
+        <v>0.14</v>
       </c>
       <c r="G791" t="n">
-        <v>0.13</v>
+        <v>0.135</v>
       </c>
       <c r="H791" t="n">
         <v>0.135</v>
       </c>
       <c r="I791" t="n">
-        <v>5690200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -28096,25 +28096,25 @@
         <v>0.135</v>
       </c>
       <c r="F792" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G792" t="n">
         <v>0.135</v>
-      </c>
-      <c r="G792" t="n">
-        <v>0.125</v>
       </c>
       <c r="H792" t="n">
         <v>0.135</v>
       </c>
       <c r="I792" t="n">
-        <v>2603800</v>
+        <v>354300</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -28128,28 +28128,28 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>0.13</v>
+        <v>0.135</v>
       </c>
       <c r="F793" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G793" t="n">
         <v>0.135</v>
-      </c>
-      <c r="G793" t="n">
-        <v>0.13</v>
       </c>
       <c r="H793" t="n">
         <v>0.135</v>
       </c>
       <c r="I793" t="n">
-        <v>794200</v>
+        <v>495800</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -28163,28 +28163,28 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F794" t="n">
-        <v>0.145</v>
+        <v>0.14</v>
       </c>
       <c r="G794" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H794" t="n">
-        <v>0.145</v>
+        <v>0.14</v>
       </c>
       <c r="I794" t="n">
-        <v>5467800</v>
+        <v>857000</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -28198,10 +28198,10 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="F795" t="n">
-        <v>0.145</v>
+        <v>0.14</v>
       </c>
       <c r="G795" t="n">
         <v>0.135</v>
@@ -28210,16 +28210,16 @@
         <v>0.135</v>
       </c>
       <c r="I795" t="n">
-        <v>741700</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -28236,25 +28236,25 @@
         <v>0.135</v>
       </c>
       <c r="F796" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="G796" t="n">
         <v>0.135</v>
       </c>
       <c r="H796" t="n">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="I796" t="n">
-        <v>461100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -28271,25 +28271,25 @@
         <v>0.14</v>
       </c>
       <c r="F797" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G797" t="n">
         <v>0.14</v>
       </c>
-      <c r="G797" t="n">
-        <v>0.135</v>
-      </c>
       <c r="H797" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I797" t="n">
-        <v>374700</v>
+        <v>20354000</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -28303,28 +28303,28 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="F798" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="G798" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="H798" t="n">
-        <v>0.14</v>
+        <v>0.145</v>
       </c>
       <c r="I798" t="n">
-        <v>1370900</v>
+        <v>4808900</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -28338,28 +28338,28 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>0.135</v>
+        <v>0.15</v>
       </c>
       <c r="F799" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="G799" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="H799" t="n">
-        <v>0.135</v>
+        <v>0.15</v>
       </c>
       <c r="I799" t="n">
-        <v>707000</v>
+        <v>1871700</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -28373,28 +28373,28 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F800" t="n">
-        <v>0.14</v>
+        <v>0.155</v>
       </c>
       <c r="G800" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="H800" t="n">
         <v>0.135</v>
       </c>
       <c r="I800" t="n">
-        <v>325400</v>
+        <v>5690200</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -28408,28 +28408,28 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>0.13</v>
+        <v>0.135</v>
       </c>
       <c r="F801" t="n">
         <v>0.135</v>
       </c>
       <c r="G801" t="n">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="H801" t="n">
         <v>0.135</v>
       </c>
       <c r="I801" t="n">
-        <v>120900</v>
+        <v>2603800</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -28452,19 +28452,19 @@
         <v>0.13</v>
       </c>
       <c r="H802" t="n">
-        <v>0.13</v>
+        <v>0.135</v>
       </c>
       <c r="I802" t="n">
-        <v>1704000</v>
+        <v>794200</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -28481,25 +28481,25 @@
         <v>0.13</v>
       </c>
       <c r="F803" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="G803" t="n">
         <v>0.13</v>
       </c>
       <c r="H803" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="I803" t="n">
-        <v>412300</v>
+        <v>5467800</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -28513,28 +28513,28 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>0.13</v>
+        <v>0.145</v>
       </c>
       <c r="F804" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G804" t="n">
         <v>0.135</v>
       </c>
-      <c r="G804" t="n">
-        <v>0.13</v>
-      </c>
       <c r="H804" t="n">
-        <v>0.13</v>
+        <v>0.135</v>
       </c>
       <c r="I804" t="n">
-        <v>103400</v>
+        <v>741700</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -28548,28 +28548,28 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>0.13</v>
+        <v>0.135</v>
       </c>
       <c r="F805" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G805" t="n">
         <v>0.135</v>
       </c>
-      <c r="G805" t="n">
-        <v>0.13</v>
-      </c>
       <c r="H805" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="I805" t="n">
-        <v>1926400</v>
+        <v>461100</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -28583,7 +28583,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="F806" t="n">
         <v>0.14</v>
@@ -28592,19 +28592,19 @@
         <v>0.135</v>
       </c>
       <c r="H806" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="I806" t="n">
-        <v>385400</v>
+        <v>374700</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -28618,28 +28618,28 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F807" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G807" t="n">
         <v>0.135</v>
       </c>
-      <c r="G807" t="n">
-        <v>0.13</v>
-      </c>
       <c r="H807" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I807" t="n">
-        <v>528600</v>
+        <v>1370900</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -28653,10 +28653,10 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>0.13</v>
+        <v>0.135</v>
       </c>
       <c r="F808" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="G808" t="n">
         <v>0.13</v>
@@ -28665,16 +28665,16 @@
         <v>0.135</v>
       </c>
       <c r="I808" t="n">
-        <v>84200</v>
+        <v>707000</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -28688,28 +28688,28 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F809" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G809" t="n">
         <v>0.135</v>
-      </c>
-      <c r="G809" t="n">
-        <v>0.13</v>
       </c>
       <c r="H809" t="n">
         <v>0.135</v>
       </c>
       <c r="I809" t="n">
-        <v>10700</v>
+        <v>325400</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -28732,19 +28732,19 @@
         <v>0.13</v>
       </c>
       <c r="H810" t="n">
-        <v>0.13</v>
+        <v>0.135</v>
       </c>
       <c r="I810" t="n">
-        <v>898400</v>
+        <v>120900</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -28761,25 +28761,25 @@
         <v>0.13</v>
       </c>
       <c r="F811" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G811" t="n">
         <v>0.13</v>
       </c>
-      <c r="G811" t="n">
-        <v>0.125</v>
-      </c>
       <c r="H811" t="n">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="I811" t="n">
-        <v>1243600</v>
+        <v>1704000</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -28793,28 +28793,28 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="F812" t="n">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="G812" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H812" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I812" t="n">
-        <v>407300</v>
+        <v>412300</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -28828,28 +28828,28 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F813" t="n">
-        <v>0.125</v>
+        <v>0.135</v>
       </c>
       <c r="G813" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H813" t="n">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="I813" t="n">
-        <v>394000</v>
+        <v>103400</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -28863,28 +28863,28 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F814" t="n">
-        <v>0.125</v>
+        <v>0.135</v>
       </c>
       <c r="G814" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H814" t="n">
-        <v>0.12</v>
+        <v>0.135</v>
       </c>
       <c r="I814" t="n">
-        <v>510300</v>
+        <v>1926400</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -28898,28 +28898,28 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>0.12</v>
+        <v>0.135</v>
       </c>
       <c r="F815" t="n">
-        <v>0.125</v>
+        <v>0.14</v>
       </c>
       <c r="G815" t="n">
-        <v>0.12</v>
+        <v>0.135</v>
       </c>
       <c r="H815" t="n">
-        <v>0.125</v>
+        <v>0.135</v>
       </c>
       <c r="I815" t="n">
-        <v>268000</v>
+        <v>385400</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -28933,28 +28933,28 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F816" t="n">
-        <v>0.12</v>
+        <v>0.135</v>
       </c>
       <c r="G816" t="n">
-        <v>0.115</v>
+        <v>0.13</v>
       </c>
       <c r="H816" t="n">
-        <v>0.115</v>
+        <v>0.13</v>
       </c>
       <c r="I816" t="n">
-        <v>351100</v>
+        <v>528600</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -28968,28 +28968,28 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>0.115</v>
+        <v>0.13</v>
       </c>
       <c r="F817" t="n">
-        <v>0.12</v>
+        <v>0.135</v>
       </c>
       <c r="G817" t="n">
-        <v>0.105</v>
+        <v>0.13</v>
       </c>
       <c r="H817" t="n">
-        <v>0.105</v>
+        <v>0.135</v>
       </c>
       <c r="I817" t="n">
-        <v>1012700</v>
+        <v>84200</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -29003,28 +29003,28 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>0.105</v>
+        <v>0.13</v>
       </c>
       <c r="F818" t="n">
-        <v>0.105</v>
+        <v>0.135</v>
       </c>
       <c r="G818" t="n">
-        <v>0.095</v>
+        <v>0.13</v>
       </c>
       <c r="H818" t="n">
-        <v>0.1</v>
+        <v>0.135</v>
       </c>
       <c r="I818" t="n">
-        <v>728300</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -29038,28 +29038,28 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F819" t="n">
-        <v>0.1</v>
+        <v>0.135</v>
       </c>
       <c r="G819" t="n">
-        <v>0.095</v>
+        <v>0.13</v>
       </c>
       <c r="H819" t="n">
-        <v>0.095</v>
+        <v>0.13</v>
       </c>
       <c r="I819" t="n">
-        <v>386000</v>
+        <v>898400</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -29073,53 +29073,368 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F820" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G820" t="n">
-        <v>0.075</v>
+        <v>0.125</v>
       </c>
       <c r="H820" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="I820" t="n">
-        <v>1525700</v>
+        <v>1243600</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E821" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F821" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G821" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H821" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I821" t="n">
+        <v>407300</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E822" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F822" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G822" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H822" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I822" t="n">
+        <v>394000</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E823" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F823" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G823" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H823" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I823" t="n">
+        <v>510300</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E824" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F824" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G824" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H824" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I824" t="n">
+        <v>268000</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E825" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F825" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G825" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H825" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I825" t="n">
+        <v>351100</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E826" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F826" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G826" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H826" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I826" t="n">
+        <v>1012700</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E827" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F827" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G827" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H827" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>728300</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E828" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F828" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G828" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H828" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I828" t="n">
+        <v>386000</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E829" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F829" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G829" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H829" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I829" t="n">
+        <v>1525700</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B821" t="inlineStr">
+      <c r="B830" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C821" t="inlineStr">
-        <is>
-          <t>0187</t>
-        </is>
-      </c>
-      <c r="D821" t="inlineStr">
-        <is>
-          <t>BCMALL</t>
-        </is>
-      </c>
-      <c r="E821" t="n">
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E830" t="n">
         <v>0.08</v>
       </c>
-      <c r="F821" t="n">
+      <c r="F830" t="n">
         <v>0.08</v>
       </c>
-      <c r="G821" t="n">
+      <c r="G830" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H821" t="n">
+      <c r="H830" t="n">
         <v>0.08</v>
       </c>
-      <c r="I821" t="n">
+      <c r="I830" t="n">
         <v>1999200</v>
       </c>
     </row>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I830"/>
+  <dimension ref="A1:I831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29438,6 +29438,41 @@
         <v>1999200</v>
       </c>
     </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E831" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F831" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G831" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H831" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I831" t="n">
+        <v>1004000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I831"/>
+  <dimension ref="A1:I832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29473,6 +29473,41 @@
         <v>1004000</v>
       </c>
     </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E832" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F832" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G832" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H832" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I832" t="n">
+        <v>3551900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I832"/>
+  <dimension ref="A1:I833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29508,6 +29508,41 @@
         <v>3551900</v>
       </c>
     </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E833" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F833" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G833" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I833" t="n">
+        <v>2282300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I833"/>
+  <dimension ref="A1:I834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29543,6 +29543,41 @@
         <v>2282300</v>
       </c>
     </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E834" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F834" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G834" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H834" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I834" t="n">
+        <v>4665400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I834"/>
+  <dimension ref="A1:I835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29578,6 +29578,41 @@
         <v>4665400</v>
       </c>
     </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E835" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F835" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G835" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H835" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I835" t="n">
+        <v>2229900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I835"/>
+  <dimension ref="A1:I836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29613,6 +29613,41 @@
         <v>2229900</v>
       </c>
     </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E836" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F836" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G836" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H836" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I836" t="n">
+        <v>2043100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I836"/>
+  <dimension ref="A1:I837"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29648,6 +29648,41 @@
         <v>2043100</v>
       </c>
     </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E837" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F837" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G837" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H837" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I837" t="n">
+        <v>90000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I837"/>
+  <dimension ref="A1:I838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29683,6 +29683,41 @@
         <v>90000</v>
       </c>
     </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E838" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F838" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G838" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H838" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I838" t="n">
+        <v>2993200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I838"/>
+  <dimension ref="A1:I839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29718,6 +29718,41 @@
         <v>2993200</v>
       </c>
     </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E839" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F839" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G839" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I839" t="n">
+        <v>1141000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I839"/>
+  <dimension ref="A1:I840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29753,6 +29753,41 @@
         <v>1141000</v>
       </c>
     </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E840" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F840" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G840" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H840" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I840" t="n">
+        <v>6988300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I840"/>
+  <dimension ref="A1:I841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29788,6 +29788,41 @@
         <v>6988300</v>
       </c>
     </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E841" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F841" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G841" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H841" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I841" t="n">
+        <v>19143700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I841"/>
+  <dimension ref="A1:I842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29823,6 +29823,41 @@
         <v>19143700</v>
       </c>
     </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E842" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F842" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G842" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H842" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I842" t="n">
+        <v>14880600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I842"/>
+  <dimension ref="A1:I843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29858,6 +29858,41 @@
         <v>14880600</v>
       </c>
     </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E843" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F843" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G843" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H843" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I843" t="n">
+        <v>6023000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I843"/>
+  <dimension ref="A1:I844"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29893,6 +29893,41 @@
         <v>6023000</v>
       </c>
     </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E844" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F844" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G844" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H844" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I844" t="n">
+        <v>2526900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I844"/>
+  <dimension ref="A1:I845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29928,6 +29928,41 @@
         <v>2526900</v>
       </c>
     </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E845" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F845" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G845" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H845" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I845" t="n">
+        <v>2617700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I845"/>
+  <dimension ref="A1:I846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29963,6 +29963,41 @@
         <v>2617700</v>
       </c>
     </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E846" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F846" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G846" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H846" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I846" t="n">
+        <v>9310900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I846"/>
+  <dimension ref="A1:I847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29998,6 +29998,41 @@
         <v>9310900</v>
       </c>
     </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E847" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G847" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H847" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I847" t="n">
+        <v>9560300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I847"/>
+  <dimension ref="A1:I848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30033,6 +30033,41 @@
         <v>9560300</v>
       </c>
     </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E848" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F848" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G848" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H848" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I848" t="n">
+        <v>3726500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I848"/>
+  <dimension ref="A1:I849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30068,6 +30068,41 @@
         <v>3726500</v>
       </c>
     </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E849" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G849" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H849" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I849" t="n">
+        <v>2382400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I849"/>
+  <dimension ref="A1:I850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30103,6 +30103,41 @@
         <v>2382400</v>
       </c>
     </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E850" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F850" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G850" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H850" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I850" t="n">
+        <v>1559300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I850"/>
+  <dimension ref="A1:I851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30138,6 +30138,41 @@
         <v>1559300</v>
       </c>
     </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E851" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F851" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G851" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I851" t="n">
+        <v>3484800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I851"/>
+  <dimension ref="A1:I852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30173,6 +30173,41 @@
         <v>3484800</v>
       </c>
     </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E852" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F852" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G852" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H852" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I852" t="n">
+        <v>2138000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I852"/>
+  <dimension ref="A1:I853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30208,6 +30208,41 @@
         <v>2138000</v>
       </c>
     </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E853" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F853" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G853" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H853" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I853" t="n">
+        <v>26836400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I853"/>
+  <dimension ref="A1:I854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30243,6 +30243,41 @@
         <v>26836400</v>
       </c>
     </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E854" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F854" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G854" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H854" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I854" t="n">
+        <v>5284300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I854"/>
+  <dimension ref="A1:I855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30278,6 +30278,41 @@
         <v>5284300</v>
       </c>
     </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E855" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F855" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G855" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H855" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I855" t="n">
+        <v>5959800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I855"/>
+  <dimension ref="A1:I857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30313,6 +30313,76 @@
         <v>5959800</v>
       </c>
     </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E856" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F856" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G856" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H856" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I856" t="n">
+        <v>3943100</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E857" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F857" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G857" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H857" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I857" t="n">
+        <v>3484300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I857"/>
+  <dimension ref="A1:I858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30383,6 +30383,41 @@
         <v>3484300</v>
       </c>
     </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E858" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F858" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G858" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H858" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I858" t="n">
+        <v>2906100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I858"/>
+  <dimension ref="A1:I861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30418,6 +30418,111 @@
         <v>2906100</v>
       </c>
     </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E859" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F859" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G859" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H859" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I859" t="n">
+        <v>1880800</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E860" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G860" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H860" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I860" t="n">
+        <v>17040000</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E861" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F861" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G861" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H861" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I861" t="n">
+        <v>81195800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I861"/>
+  <dimension ref="A1:I862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30523,6 +30523,41 @@
         <v>81195800</v>
       </c>
     </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E862" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G862" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H862" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I862" t="n">
+        <v>28994000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I862"/>
+  <dimension ref="A1:I863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30558,6 +30558,41 @@
         <v>28994000</v>
       </c>
     </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E863" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G863" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H863" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I863" t="n">
+        <v>8162000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0187.xlsx
+++ b/data/0187.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I863"/>
+  <dimension ref="A1:I866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30593,6 +30593,111 @@
         <v>8162000</v>
       </c>
     </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E864" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F864" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G864" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H864" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I864" t="n">
+        <v>16757500</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E865" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F865" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G865" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H865" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I865" t="n">
+        <v>24810900</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>0187</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>BCMALL</t>
+        </is>
+      </c>
+      <c r="E866" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G866" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H866" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I866" t="n">
+        <v>46688200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
